--- a/ExcelConfig/Spheres/20000.xlsx
+++ b/ExcelConfig/Spheres/20000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Spheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234B657-7CAD-4630-A351-9B14D7570E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFEC2BA-A5F5-4065-B8C6-5A10FCD7639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3075" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="3705" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sphere" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,25 @@
   </si>
   <si>
     <t>10000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>characters_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characters_evo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildings_r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,6 +276,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -691,20 +712,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="6" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,8 +749,17 @@
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -749,8 +781,17 @@
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>_help!B2+ROW()-3</f>
         <v>20000</v>
@@ -772,12 +813,21 @@
       </c>
       <c r="G3" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>7000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2" xr:uid="{2A0195CB-C8E4-4AF5-9BF6-090CBE9D070A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:J2" xr:uid="{2A0195CB-C8E4-4AF5-9BF6-090CBE9D070A}">
       <formula1>"int,string,double,bool,Array&lt;int&gt;,Array&lt;string&gt;,Array&lt;double&gt;,Array&lt;bool&gt;"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/Spheres/20000.xlsx
+++ b/ExcelConfig/Spheres/20000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Spheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFEC2BA-A5F5-4065-B8C6-5A10FCD7639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D48B6-6052-4012-A7FD-F5801D148139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3705" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="3240" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sphere" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>earth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +131,30 @@
   </si>
   <si>
     <t>buildings_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -278,6 +298,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -347,7 +368,7 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Rings</v>
+            <v>Cover</v>
           </cell>
           <cell r="B5">
             <v>3000</v>
@@ -361,7 +382,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Floors</v>
+            <v>Rings</v>
           </cell>
           <cell r="B6">
             <v>4000</v>
@@ -375,7 +396,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Terrains</v>
+            <v>Floors</v>
           </cell>
           <cell r="B7">
             <v>5000</v>
@@ -389,7 +410,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Earth</v>
+            <v>Terrains</v>
           </cell>
           <cell r="B8">
             <v>6000</v>
@@ -403,7 +424,7 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Characters</v>
+            <v>Earth</v>
           </cell>
           <cell r="B9">
             <v>7000</v>
@@ -417,29 +438,43 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
+            <v>Characters</v>
+          </cell>
+          <cell r="B10">
+            <v>8000</v>
+          </cell>
+          <cell r="C10">
+            <v>8999</v>
+          </cell>
+          <cell r="D10">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
             <v>Buildings</v>
           </cell>
-          <cell r="B10">
+          <cell r="B12">
             <v>10000</v>
           </cell>
-          <cell r="C10">
+          <cell r="C12">
             <v>19999</v>
           </cell>
-          <cell r="D10">
+          <cell r="D12">
             <v>10000</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="A11" t="str">
+        <row r="13">
+          <cell r="A13" t="str">
             <v>Spheres</v>
           </cell>
-          <cell r="B11">
+          <cell r="B13">
             <v>20000</v>
           </cell>
-          <cell r="C11">
+          <cell r="C13">
             <v>29999</v>
           </cell>
-          <cell r="D11">
+          <cell r="D13">
             <v>10000</v>
           </cell>
         </row>
@@ -712,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,7 +762,7 @@
     <col min="10" max="10" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -750,16 +785,25 @@
         <v>11</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>22</v>
+      <c r="L1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -785,13 +829,22 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>_help!B2+ROW()-3</f>
         <v>20000</v>
@@ -800,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
@@ -815,13 +868,22 @@
         <v>12</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J3">
         <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4000</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -865,11 +927,11 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$33,2,FALSE)</f>
+        <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$34,2,FALSE)</f>
         <v>20000</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$33,3,FALSE)</f>
+        <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$34,3,FALSE)</f>
         <v>29999</v>
       </c>
     </row>

--- a/ExcelConfig/Spheres/20000.xlsx
+++ b/ExcelConfig/Spheres/20000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Spheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D48B6-6052-4012-A7FD-F5801D148139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDAEA0-823B-46E9-BD67-3F1252209D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3240" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="3615" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sphere" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buildings_r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,6 +447,20 @@
             <v>8999</v>
           </cell>
           <cell r="D10">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MainTrees</v>
+          </cell>
+          <cell r="B11">
+            <v>9000</v>
+          </cell>
+          <cell r="C11">
+            <v>9999</v>
+          </cell>
+          <cell r="D11">
             <v>1000</v>
           </cell>
         </row>
@@ -750,7 +764,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -785,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>20</v>
@@ -794,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -835,13 +849,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -856,7 +870,7 @@
         <v>7000</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>18</v>
@@ -868,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>8000</v>

--- a/ExcelConfig/Spheres/20000.xlsx
+++ b/ExcelConfig/Spheres/20000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Spheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDAEA0-823B-46E9-BD67-3F1252209D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51528038-AE36-45F6-9E97-FBC6472BCFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3615" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="5130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sphere" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +329,7 @@
             <v>Backgrounds</v>
           </cell>
           <cell r="B2">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="C2">
             <v>999</v>
@@ -764,7 +764,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -799,22 +799,22 @@
         <v>11</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -822,16 +822,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -843,19 +843,19 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -870,19 +870,19 @@
         <v>7000</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>8000</v>
